--- a/rl-smc.xlsx
+++ b/rl-smc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\King's College London\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC61E65-F6C2-424C-AE92-3EFD0F08D099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2902FEBF-2D33-455F-A963-BF7F03AC3E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1404" windowWidth="15360" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>copy4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,123 +242,150 @@
     <t>2021-11-09-3-Noise-Sine-SMC-actor.hdf5</t>
   </si>
   <si>
+    <t>输出范围 20 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.9 * abs(np.arctan(u1)) + 0.04 * u2</t>
+  </si>
+  <si>
+    <t>不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.1 * abs(np.arctan(u1)) + 0.1 * abs(np.arctan(u2))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +   abs(np.arctan(u1)) + 0.03 * u2 </t>
+  </si>
+  <si>
+    <t>11-11  3000轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.05 * abs(np.arctan(u1)) + 0.025 * u2 / 20 * np.pi</t>
+  </si>
+  <si>
+    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.05 * abs(np.arctan(u1)) + 0.05 * u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-11-2 5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.03 * abs(np.arctan(u1)) + 0.03 * u2</t>
+  </si>
+  <si>
+    <t>11-11-3 5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 + 0.1 * abs(u1) + 0.02 * u2</t>
+  </si>
+  <si>
+    <t>效果一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.43, 20</t>
+  </si>
+  <si>
+    <t>0.01s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target 0 0   4000steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target 2 1 2 1   4000steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.90983459 20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target 0 0   10000steps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.85279156 20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.29208904 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.50458315 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.42655629 20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.17896152 20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.06 * abs(np.arctan(u1)) + 0.06 * u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target = np.array([2 * np.sin(0.5*step*env.dt), 1 * np.cos(0.5*step*env.dt)])</t>
+  </si>
+  <si>
+    <t>costs = (c1 * newe_th + newe_thdot) ** 2 + 0.03 * abs(u1) + 0.03 * abs(u2)</t>
+  </si>
+  <si>
+    <t>Q_LR = 1e-5  # q_net learning rate</t>
+  </si>
+  <si>
+    <t>POLICY_LR = 1e-5  # policy_net learning rate</t>
+  </si>
+  <si>
+    <t>target = np.array([0, 0])</t>
+  </si>
+  <si>
+    <t>target 0 0 testing perfomes great</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">costs = (c1 * abs(newe_th) + abs(newe_thdot)) ** 2 + 0.03 * abs(u1) + 0.03 * abs(u2) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.8 * abs(np.arctan(u1)) + 0.03 * u2 </t>
-  </si>
-  <si>
-    <t>输出范围 20 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.9 * abs(np.arctan(u1)) + 0.04 * u2</t>
-  </si>
-  <si>
-    <t>不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.1 * abs(np.arctan(u1)) + 0.1 * abs(np.arctan(u2))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +   abs(np.arctan(u1)) + 0.03 * u2 </t>
-  </si>
-  <si>
-    <t>11-11  3000轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.05 * abs(np.arctan(u1)) + 0.025 * u2 / 20 * np.pi</t>
-  </si>
-  <si>
-    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.05 * abs(np.arctan(u1)) + 0.05 * u2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-11-2 5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.03 * abs(np.arctan(u1)) + 0.03 * u2</t>
-  </si>
-  <si>
-    <t>11-11-3 5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 + 0.1 * abs(u1) + 0.02 * u2</t>
-  </si>
-  <si>
-    <t>效果一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.005s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.43, 20</t>
-  </si>
-  <si>
-    <t>0.01s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target 0 0   4000steps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target 2 1 2 1   4000steps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.90983459 20.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target 0 0   10000steps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.85279156 20.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.29208904 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.50458315 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.42655629 20.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.001s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.17896152 20.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costs = (c1 * abs(newe_th) + 0.1 * abs(newe_thdot)) ** 2 +  0.06 * abs(np.arctan(u1)) + 0.06 * u2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_policy_net-0202-1.npz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +399,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -430,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -447,6 +480,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2200,6 +2236,250 @@
         <a:xfrm>
           <a:off x="16752618" y="18082260"/>
           <a:ext cx="1725881" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1550893</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3023347</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>5380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C47D04-0D25-4FC0-A190-04C5C61137AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9269505" y="23477694"/>
+          <a:ext cx="1472454" cy="1019262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3194316</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4206687</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>172122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C200826E-40C1-44DD-A3A7-32591C2DF991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10912928" y="23613035"/>
+          <a:ext cx="1012371" cy="692075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1568823</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2748130</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B7C529-CCA3-4593-9952-CA63D9817224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9287435" y="24485442"/>
+          <a:ext cx="1179307" cy="807131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2958352</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4256441</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1227AFC4-2E69-4EE5-98AC-EF1244533605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12012705" y="24503448"/>
+          <a:ext cx="1298089" cy="842913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2484,17 +2764,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
     <col min="5" max="5" width="104.44140625" customWidth="1"/>
     <col min="6" max="6" width="73.77734375" customWidth="1"/>
@@ -2728,45 +3008,45 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
         <v>52</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
         <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="149.4" customHeight="1">
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
         <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
       </c>
       <c r="G24" s="10">
         <v>37936</v>
@@ -2774,124 +3054,164 @@
     </row>
     <row r="25" spans="1:7">
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="141" customHeight="1">
       <c r="D27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="180" customHeight="1"/>
     <row r="29" spans="1:7">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
       <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
         <v>73</v>
-      </c>
-      <c r="F31" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="C32" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="C35" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="2:6">
       <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
         <v>78</v>
       </c>
-      <c r="D36" t="s">
-        <v>79</v>
-      </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37">
         <v>7.6368908199999996</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
